--- a/template/SeaFlow_example.xlsx
+++ b/template/SeaFlow_example.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2275" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2273" uniqueCount="183">
   <si>
     <t xml:space="preserve">time</t>
   </si>
@@ -336,9 +336,6 @@
     <t xml:space="preserve">dataset_distributor</t>
   </si>
   <si>
-    <t xml:space="preserve">dataset_doi</t>
-  </si>
-  <si>
     <t xml:space="preserve">dataset_history</t>
   </si>
   <si>
@@ -364,9 +361,6 @@
   </si>
   <si>
     <t xml:space="preserve">Armbrust Lab, University of Washington</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.5281/zenodo.2678022</t>
   </si>
   <si>
     <t xml:space="preserve">The data sets consist of SeaFlow-based cell abundance, forward light scatter, and pigment fluorescence of individual cells, as well as derived estimates of equivalent spherical diameter (ESD) and cellular carbon content of picophytoplankton, which includes the cyanobacteria Prochlorococcus, Synechococcus and small-sized Crocosphaera (&lt; 5 μm ESD), and picophytoplankton and nanophytoplankton (2-5 μm ESD). SeaFlow data were collected in surface waters (≈5 m depth) from oceanographic cruises carried out across the Northeast Pacific Ocean since 2010. Data provides high spatial resolution (≈1 km) measurements across ocean basin, along with near-monthly data at the long-term sampling site (Station ALOHA) of the Hawaii Ocean Time-Series since 2015. Further information can be found here: https://github.com/armbrustlab/popcycle</t>
@@ -717,8 +711,8 @@
   </sheetPr>
   <dimension ref="A1:Y1001"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H28" activeCellId="0" sqref="H27:H28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H28" activeCellId="0" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22464,10 +22458,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="1" sqref="H27:H28 C10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22477,11 +22471,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="40.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="42.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="0" width="48.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="24.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="41.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="20.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="48.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="24.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="41.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="20.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="12" style="0" width="8.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22521,50 +22516,41 @@
       <c r="L1" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="M1" s="0" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="B2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>110</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>111</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>43607</v>
       </c>
       <c r="E2" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="H2" s="4"/>
+      <c r="I2" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="J2" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="0" t="s">
+      <c r="K2" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="K2" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="M2" s="0" t="n">
+      <c r="L2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" display="https://doi.org/10.5281/zenodo.2678022"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -22583,7 +22569,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C47" activeCellId="1" sqref="H27:H28 C47"/>
+      <selection pane="topLeft" activeCell="C47" activeCellId="0" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22600,40 +22586,40 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="J1" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="L1" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="J1" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="L1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>125</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22641,24 +22627,24 @@
         <v>3</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="J2" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22666,39 +22652,39 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>3</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22706,39 +22692,39 @@
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22746,39 +22732,39 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>3</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22786,39 +22772,39 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>3</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22826,39 +22812,39 @@
         <v>8</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>3</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L7" s="2" t="n">
         <v>5</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22866,39 +22852,39 @@
         <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>3</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L8" s="2" t="n">
         <v>6</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22906,39 +22892,39 @@
         <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>3</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L9" s="2" t="n">
         <v>7</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22946,39 +22932,39 @@
         <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>3</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L10" s="2" t="n">
         <v>8</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22986,39 +22972,39 @@
         <v>12</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I11" s="0" t="n">
         <v>3</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L11" s="2" t="n">
         <v>9</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23026,39 +23012,39 @@
         <v>13</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>3</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L12" s="2" t="n">
         <v>10</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23066,39 +23052,39 @@
         <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>3</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L13" s="2" t="n">
         <v>11</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23106,39 +23092,39 @@
         <v>15</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>3</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L14" s="2" t="n">
         <v>12</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23146,39 +23132,39 @@
         <v>16</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>3</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L15" s="2" t="n">
         <v>13</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23186,39 +23172,39 @@
         <v>17</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I16" s="0" t="n">
         <v>3</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L16" s="2" t="n">
         <v>14</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23226,39 +23212,39 @@
         <v>18</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I17" s="0" t="n">
         <v>3</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L17" s="2" t="n">
         <v>15</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23266,39 +23252,39 @@
         <v>19</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I18" s="0" t="n">
         <v>3</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L18" s="2" t="n">
         <v>16</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23306,39 +23292,39 @@
         <v>20</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I19" s="0" t="n">
         <v>3</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L19" s="2" t="n">
         <v>17</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23346,39 +23332,39 @@
         <v>21</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I20" s="0" t="n">
         <v>3</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L20" s="2" t="n">
         <v>18</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23386,39 +23372,39 @@
         <v>22</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I21" s="0" t="n">
         <v>3</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L21" s="2" t="n">
         <v>19</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23426,39 +23412,39 @@
         <v>23</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I22" s="0" t="n">
         <v>3</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L22" s="2" t="n">
         <v>20</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23466,39 +23452,39 @@
         <v>24</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I23" s="0" t="n">
         <v>3</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L23" s="2" t="n">
         <v>21</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
